--- a/CKM_Change_Requests.xlsx
+++ b/CKM_Change_Requests.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T444"/>
+  <dimension ref="A1:T447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44686,6 +44686,327 @@
       </c>
       <c r="T444" t="inlineStr"/>
     </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>1013.36.1306</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>CR-1306</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Add accreditation status for the analyte</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>The archetype currently lacks a data element indicating whether the analytical method used for the analyte is accredited. This information is required for laboratory reporting in Norway. 
+suggestion:
+Element: Accredited 
+Description: Indicates whether the analytical method used for this analyte is accredited. 
+Comment: Supports quality assurance and regulatory compliance by indicating whether a laboratory analysis was performed under accreditation. 
+Data types: Text, Boolean</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>liv.laugen</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>Liv Laugen</t>
+        </is>
+      </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>liv.laugen</t>
+        </is>
+      </c>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>Liv Laugen</t>
+        </is>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>2026-02-05T15:52:44+01:00</t>
+        </is>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>2026-02-05T15:52:44+01:00</t>
+        </is>
+      </c>
+      <c r="M445" t="inlineStr">
+        <is>
+          <t>https://ckm.openehr.org/ckm/archetypes/1013.1.2881/changerequests/1013.36.1306</t>
+        </is>
+      </c>
+      <c r="N445" t="inlineStr">
+        <is>
+          <t>1013.1.2881</t>
+        </is>
+      </c>
+      <c r="O445" t="inlineStr">
+        <is>
+          <t>ARCHETYPE</t>
+        </is>
+      </c>
+      <c r="P445" t="inlineStr">
+        <is>
+          <t>Laboratory analyte result</t>
+        </is>
+      </c>
+      <c r="Q445" t="inlineStr">
+        <is>
+          <t>openEHR-EHR-CLUSTER.laboratory_test_analyte.v1</t>
+        </is>
+      </c>
+      <c r="R445" t="inlineStr">
+        <is>
+          <t>PUBLISHED</t>
+        </is>
+      </c>
+      <c r="S445" t="inlineStr">
+        <is>
+          <t>1013.30.26</t>
+        </is>
+      </c>
+      <c r="T445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>1013.36.1307</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>CR-1307</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Add Text as a supported data type for the Specimen element</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>We request that the data type Text be added as a supported option for the Specimen element. Currently, only Identifier and URI are allowed, which is insufficient for use cases that require a descriptive or coded representation of the specimen.</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>liv.laugen</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>Liv Laugen</t>
+        </is>
+      </c>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>liv.laugen</t>
+        </is>
+      </c>
+      <c r="J446" t="inlineStr">
+        <is>
+          <t>Liv Laugen</t>
+        </is>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>2026-02-05T15:55:26+01:00</t>
+        </is>
+      </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>2026-02-05T15:55:26+01:00</t>
+        </is>
+      </c>
+      <c r="M446" t="inlineStr">
+        <is>
+          <t>https://ckm.openehr.org/ckm/archetypes/1013.1.2881/changerequests/1013.36.1307</t>
+        </is>
+      </c>
+      <c r="N446" t="inlineStr">
+        <is>
+          <t>1013.1.2881</t>
+        </is>
+      </c>
+      <c r="O446" t="inlineStr">
+        <is>
+          <t>ARCHETYPE</t>
+        </is>
+      </c>
+      <c r="P446" t="inlineStr">
+        <is>
+          <t>Laboratory analyte result</t>
+        </is>
+      </c>
+      <c r="Q446" t="inlineStr">
+        <is>
+          <t>openEHR-EHR-CLUSTER.laboratory_test_analyte.v1</t>
+        </is>
+      </c>
+      <c r="R446" t="inlineStr">
+        <is>
+          <t>PUBLISHED</t>
+        </is>
+      </c>
+      <c r="S446" t="inlineStr">
+        <is>
+          <t>1013.30.26</t>
+        </is>
+      </c>
+      <c r="T446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>1013.36.1308</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>CR-1308</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Add two optional elements: Result item ID and Reference to result item ID</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>To properly represent Norwegian diagnostic reporting requirements, we request the addition of two elements: Result Item ID (referred to as IdResultItem) in the Norwegian specification) and Reference to Result Item ID (RefIdResultItem). 
+The Result item ID is used to uniquely identify and distinguish individual investigation results within the same report. 
+When multiple results exist for the same investigation, the ID expresses their chronological sequence: 
+Id = 1 represents the oldest result 
+Id = 2 the next oldest 
+and so on 
+This ordering is essential in reports where historical results are included alongside current findings. 
+The Reference to Result Item ID is used to refer to another investigation result by pointing to its corresponding IdResultItem. 
+This enables structured relationships among findings within the same report and is especially important in medical microbiology, where organism findings and antimicrobial resistance results must be correctly associated. 
+I belive that this proposal is equivalent to established FHIR patterns: https://hl7.org/fhir/diagnostics-module.html#org-dr-obs
+Result identifier ↔ Observation.identifier 
+Reference result identifier ↔ 
+Observation.hasMember (panel/component) 
+Observation.derivedFrom (derivation) 
+Element: Result identifier  
+Description: A unique identifier used to distinguish and reference a specific analyte result within the same laboratory result report. 
+Comment: Provides an identifier that enables explicit linking between related analyte results, allowing other analytes to reference it through the Reference result identifier element (e.g., for derived calculations, panel composition, or source‑of relationships). 
+Data types: Identifier, text, Uri 
+Element: Reference result identifier  
+Description: A reference to the identifier of another analyte result within the same laboratory result report. 
+Comment: Supports explicit, structured linking between related results by pointing to the target analyte’s Result identifier. 
+Data types: Identifier, text, Uri 
+I have created a version of the archetype that includes the changes I have proposed — accredited, analysis performed time, result identifier, reference result identifier, and support for the Text data type in the specimen element.</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>liv.laugen</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>Liv Laugen</t>
+        </is>
+      </c>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>liv.laugen</t>
+        </is>
+      </c>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>Liv Laugen</t>
+        </is>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>2026-02-05T16:05:42+01:00</t>
+        </is>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>2026-02-05T16:08:10+01:00</t>
+        </is>
+      </c>
+      <c r="M447" t="inlineStr">
+        <is>
+          <t>https://ckm.openehr.org/ckm/archetypes/1013.1.2881/changerequests/1013.36.1308</t>
+        </is>
+      </c>
+      <c r="N447" t="inlineStr">
+        <is>
+          <t>1013.1.2881</t>
+        </is>
+      </c>
+      <c r="O447" t="inlineStr">
+        <is>
+          <t>ARCHETYPE</t>
+        </is>
+      </c>
+      <c r="P447" t="inlineStr">
+        <is>
+          <t>Laboratory analyte result</t>
+        </is>
+      </c>
+      <c r="Q447" t="inlineStr">
+        <is>
+          <t>openEHR-EHR-CLUSTER.laboratory_test_analyte.v1</t>
+        </is>
+      </c>
+      <c r="R447" t="inlineStr">
+        <is>
+          <t>PUBLISHED</t>
+        </is>
+      </c>
+      <c r="S447" t="inlineStr">
+        <is>
+          <t>1013.30.26</t>
+        </is>
+      </c>
+      <c r="T447" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CKM_Change_Requests.xlsx
+++ b/CKM_Change_Requests.xlsx
@@ -44532,12 +44532,12 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>silje.bakke</t>
+          <t>johntore.valand</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Silje Ljosland Bakke</t>
+          <t>John Tore Valand</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -44547,7 +44547,7 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>2026-02-04T15:41:47+01:00</t>
+          <t>2026-02-06T08:40:50+01:00</t>
         </is>
       </c>
       <c r="M443" t="inlineStr">

--- a/CKM_Change_Requests.xlsx
+++ b/CKM_Change_Requests.xlsx
@@ -23769,7 +23769,7 @@
       </c>
       <c r="S234" t="inlineStr">
         <is>
-          <t>1013.30.81</t>
+          <t>1013.30.60</t>
         </is>
       </c>
       <c r="T234" t="inlineStr"/>
@@ -23867,7 +23867,7 @@
       </c>
       <c r="S235" t="inlineStr">
         <is>
-          <t>1013.30.81</t>
+          <t>1013.30.60</t>
         </is>
       </c>
       <c r="T235" t="inlineStr"/>
@@ -25867,7 +25867,7 @@
       </c>
       <c r="S255" t="inlineStr">
         <is>
-          <t>1013.30.81</t>
+          <t>1013.30.60</t>
         </is>
       </c>
       <c r="T255" t="inlineStr"/>
@@ -37179,7 +37179,7 @@
       </c>
       <c r="S369" t="inlineStr">
         <is>
-          <t>1013.30.81</t>
+          <t>1013.30.60</t>
         </is>
       </c>
       <c r="T369" t="inlineStr"/>

--- a/CKM_Change_Requests.xlsx
+++ b/CKM_Change_Requests.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T447"/>
+  <dimension ref="A1:T448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45007,6 +45007,106 @@
       </c>
       <c r="T447" t="inlineStr"/>
     </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>1013.36.1309</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>CR-1309</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>FHIR supports range for administration rate</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>Can we make the administration rate also interval potentially ? 
+https://simplifier.net/packages/hl7.fhir.r4.core/4.0.1/files/3000391
+doseAndRange.rate[x].rateRange</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>severin.kohler</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>Severin Kohler</t>
+        </is>
+      </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>severin.kohler</t>
+        </is>
+      </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>Severin Kohler</t>
+        </is>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>2026-02-11T15:37:58+01:00</t>
+        </is>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>2026-02-11T15:37:58+01:00</t>
+        </is>
+      </c>
+      <c r="M448" t="inlineStr">
+        <is>
+          <t>https://ckm.openehr.org/ckm/archetypes/1013.1.5948/changerequests/1013.36.1309</t>
+        </is>
+      </c>
+      <c r="N448" t="inlineStr">
+        <is>
+          <t>1013.1.5948</t>
+        </is>
+      </c>
+      <c r="O448" t="inlineStr">
+        <is>
+          <t>ARCHETYPE</t>
+        </is>
+      </c>
+      <c r="P448" t="inlineStr">
+        <is>
+          <t>Dosage</t>
+        </is>
+      </c>
+      <c r="Q448" t="inlineStr">
+        <is>
+          <t>openEHR-EHR-CLUSTER.dosage.v2</t>
+        </is>
+      </c>
+      <c r="R448" t="inlineStr">
+        <is>
+          <t>PUBLISHED</t>
+        </is>
+      </c>
+      <c r="S448" t="inlineStr">
+        <is>
+          <t>1013.30.27</t>
+        </is>
+      </c>
+      <c r="T448" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CKM_Change_Requests.xlsx
+++ b/CKM_Change_Requests.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T448"/>
+  <dimension ref="A1:T450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Intraocular pressure</t>
+          <t>Intraocular pressure test</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -13796,7 +13796,7 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>Intraocular pressure</t>
+          <t>Intraocular pressure test</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr">
@@ -45107,6 +45107,209 @@
       </c>
       <c r="T448" t="inlineStr"/>
     </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>1013.36.1310</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>CR-1310</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Add comment element that applies to the entire result report</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>In Norwegian laboratory result reports, it is standard practice to include a comment that applies to the entire result report, which may contain multiple instances of openEHR‑EHR‑OBSERVATION.laboratory_test_result.v1. The national specification supports both free‑text comments and coded comments. 
+It is therefore proposed to add a new comment element, using the data type DV_TEXT, optional and repeating, to allow comments that apply to the diagnostic report as a whole. 
+This element could also be considered for inclusion in all report compositions (COMPOSITION.report) and their subtypes. 
+Proposed element - 
+- Element name: Comment (repeating) 
+- Description: A narrative statement concerning the diagnostic report as a whole. 
+- Comment: Examples include: Justification for a change or cancellation, recommended time frame for action., recomendation to repeat investigation.
+- Data type: DV_TEXT</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>liv.laugen</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>Liv Laugen</t>
+        </is>
+      </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>liv.laugen</t>
+        </is>
+      </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>Liv Laugen</t>
+        </is>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>2026-02-12T14:00:48+01:00</t>
+        </is>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>2026-02-12T14:00:48+01:00</t>
+        </is>
+      </c>
+      <c r="M449" t="inlineStr">
+        <is>
+          <t>https://ckm.openehr.org/ckm/archetypes/1013.1.1324/changerequests/1013.36.1310</t>
+        </is>
+      </c>
+      <c r="N449" t="inlineStr">
+        <is>
+          <t>1013.1.1324</t>
+        </is>
+      </c>
+      <c r="O449" t="inlineStr">
+        <is>
+          <t>ARCHETYPE</t>
+        </is>
+      </c>
+      <c r="P449" t="inlineStr">
+        <is>
+          <t>Result report</t>
+        </is>
+      </c>
+      <c r="Q449" t="inlineStr">
+        <is>
+          <t>openEHR-EHR-COMPOSITION.report-result.v1</t>
+        </is>
+      </c>
+      <c r="R449" t="inlineStr">
+        <is>
+          <t>PUBLISHED</t>
+        </is>
+      </c>
+      <c r="S449" t="inlineStr">
+        <is>
+          <t>1013.8.1</t>
+        </is>
+      </c>
+      <c r="T449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>1013.36.1311</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>CR-1311</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Allow the Status element to support multiple entries.</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>In Norwegian reports for diagnostic services, two levels of status are used at the report level. To support this, the archetype must allow multiple status entries so it can represent the full Norwegian status model.</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>liv.laugen</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>Liv Laugen</t>
+        </is>
+      </c>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>liv.laugen</t>
+        </is>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>Liv Laugen</t>
+        </is>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>2026-02-12T14:02:40+01:00</t>
+        </is>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>2026-02-12T14:02:40+01:00</t>
+        </is>
+      </c>
+      <c r="M450" t="inlineStr">
+        <is>
+          <t>https://ckm.openehr.org/ckm/archetypes/1013.1.1324/changerequests/1013.36.1311</t>
+        </is>
+      </c>
+      <c r="N450" t="inlineStr">
+        <is>
+          <t>1013.1.1324</t>
+        </is>
+      </c>
+      <c r="O450" t="inlineStr">
+        <is>
+          <t>ARCHETYPE</t>
+        </is>
+      </c>
+      <c r="P450" t="inlineStr">
+        <is>
+          <t>Result report</t>
+        </is>
+      </c>
+      <c r="Q450" t="inlineStr">
+        <is>
+          <t>openEHR-EHR-COMPOSITION.report-result.v1</t>
+        </is>
+      </c>
+      <c r="R450" t="inlineStr">
+        <is>
+          <t>PUBLISHED</t>
+        </is>
+      </c>
+      <c r="S450" t="inlineStr">
+        <is>
+          <t>1013.8.1</t>
+        </is>
+      </c>
+      <c r="T450" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CKM_Change_Requests.xlsx
+++ b/CKM_Change_Requests.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T450"/>
+  <dimension ref="A1:T452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45310,6 +45310,206 @@
       </c>
       <c r="T450" t="inlineStr"/>
     </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>1013.36.1312</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>CR-1312</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Consideration of addition of 'Tolerance demonstrated' or similar date</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>Abatement/Resolution: In FHIR, abatement is defined as the date or estimated date that the allergy or intolerance resolved, a term chosen to avoid the many overloaded connotations of “resolution.”
+However, in clinical reality, allergies rarely resolve in an absolute sense. Most IgE-mediated allergies represent persistent immunological sensitisation, even when symptoms are no longer clinically apparent. Interventions such as immunotherapy induce immune tolerance rather than cure, and the immune system typically retains memory of sensitisation.
+A more clinically accurate concept is the date when “Tolerance demonstrated,” which allows the allergy record to remain active while recognising that exposure did not produce symptoms at a specific point in time. This reflects the absence of observable clinical reactivity under defined conditions, without implying loss of underlying immunological capability or permanent elimination of risk. This distinction is particularly important in situations such as successful desensitisation to environmental allergens or children who no longer react to previously allergenic foods.</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>heather.leslie</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>Heather Leslie</t>
+        </is>
+      </c>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>heather.leslie</t>
+        </is>
+      </c>
+      <c r="J451" t="inlineStr">
+        <is>
+          <t>Heather Leslie</t>
+        </is>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>2026-02-16T10:23:46+01:00</t>
+        </is>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>2026-02-16T10:26:05+01:00</t>
+        </is>
+      </c>
+      <c r="M451" t="inlineStr">
+        <is>
+          <t>https://ckm.openehr.org/ckm/archetypes/1013.1.7022/changerequests/1013.36.1312</t>
+        </is>
+      </c>
+      <c r="N451" t="inlineStr">
+        <is>
+          <t>1013.1.7022</t>
+        </is>
+      </c>
+      <c r="O451" t="inlineStr">
+        <is>
+          <t>ARCHETYPE</t>
+        </is>
+      </c>
+      <c r="P451" t="inlineStr">
+        <is>
+          <t>Adverse reaction risk</t>
+        </is>
+      </c>
+      <c r="Q451" t="inlineStr">
+        <is>
+          <t>openEHR-EHR-EVALUATION.adverse_reaction_risk.v2</t>
+        </is>
+      </c>
+      <c r="R451" t="inlineStr">
+        <is>
+          <t>PUBLISHED</t>
+        </is>
+      </c>
+      <c r="S451" t="inlineStr">
+        <is>
+          <t>1013.8.1</t>
+        </is>
+      </c>
+      <c r="T451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>1013.36.1313</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>CR-1313</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Remove 'Refuted' from Verification status</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It was added to align with FHIR but the definition of refuted varies between resources/profiles - sometimes it is used to express that a previously sent allergy is no longer clinically relevant and other times to express an exclusion. There is inconsistency in the definition and implementations.
+We should keep this clinically clean and allow 'refuted' to be managed in FHIR/openEHR mappings in the same way as 'entered in error'. in openEHR excluding an allergy should use the Exclusion archetypes only.
+</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>heather.leslie</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>Heather Leslie</t>
+        </is>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>heather.leslie</t>
+        </is>
+      </c>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>Heather Leslie</t>
+        </is>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>2026-02-16T10:33:16+01:00</t>
+        </is>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>2026-02-16T10:35:57+01:00</t>
+        </is>
+      </c>
+      <c r="M452" t="inlineStr">
+        <is>
+          <t>https://ckm.openehr.org/ckm/archetypes/1013.1.7022/changerequests/1013.36.1313</t>
+        </is>
+      </c>
+      <c r="N452" t="inlineStr">
+        <is>
+          <t>1013.1.7022</t>
+        </is>
+      </c>
+      <c r="O452" t="inlineStr">
+        <is>
+          <t>ARCHETYPE</t>
+        </is>
+      </c>
+      <c r="P452" t="inlineStr">
+        <is>
+          <t>Adverse reaction risk</t>
+        </is>
+      </c>
+      <c r="Q452" t="inlineStr">
+        <is>
+          <t>openEHR-EHR-EVALUATION.adverse_reaction_risk.v2</t>
+        </is>
+      </c>
+      <c r="R452" t="inlineStr">
+        <is>
+          <t>PUBLISHED</t>
+        </is>
+      </c>
+      <c r="S452" t="inlineStr">
+        <is>
+          <t>1013.8.1</t>
+        </is>
+      </c>
+      <c r="T452" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CKM_Change_Requests.xlsx
+++ b/CKM_Change_Requests.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T452"/>
+  <dimension ref="A1:T453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45510,6 +45510,105 @@
       </c>
       <c r="T452" t="inlineStr"/>
     </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>1013.36.1314</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>CR-1314</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Refine "Hardware revision" element to support coded terminology for standardized tracking.</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>The current definition of the "Hardware revision" element, with the description "The hardware revision number", is overly restrictive as it implies a simple free-text or numeric entry.
+To improve interoperability and data analytics, I propose updating the description to explicitly support a DV_CODED_TEXT data type. This would allow the element to reference a standardized list of hardware revision types or categories. Proposal: Update the element's description to "The hardware revision level or version of the device, preferably represented by a coded terminology where available."</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>laura.morallopez</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>Laura Moral Lopez</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>laura.morallopez</t>
+        </is>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>Laura Moral Lopez</t>
+        </is>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>2026-02-16T16:01:24+01:00</t>
+        </is>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>2026-02-16T16:01:24+01:00</t>
+        </is>
+      </c>
+      <c r="M453" t="inlineStr">
+        <is>
+          <t>https://ckm.openehr.org/ckm/archetypes/1013.1.844/changerequests/1013.36.1314</t>
+        </is>
+      </c>
+      <c r="N453" t="inlineStr">
+        <is>
+          <t>1013.1.844</t>
+        </is>
+      </c>
+      <c r="O453" t="inlineStr">
+        <is>
+          <t>ARCHETYPE</t>
+        </is>
+      </c>
+      <c r="P453" t="inlineStr">
+        <is>
+          <t>Medical device details</t>
+        </is>
+      </c>
+      <c r="Q453" t="inlineStr">
+        <is>
+          <t>openEHR-EHR-CLUSTER.device_details.v0</t>
+        </is>
+      </c>
+      <c r="R453" t="inlineStr">
+        <is>
+          <t>DRAFT</t>
+        </is>
+      </c>
+      <c r="S453" t="inlineStr">
+        <is>
+          <t>1013.8.1</t>
+        </is>
+      </c>
+      <c r="T453" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CKM_Change_Requests.xlsx
+++ b/CKM_Change_Requests.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T453"/>
+  <dimension ref="A1:T457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45609,6 +45609,407 @@
       </c>
       <c r="T453" t="inlineStr"/>
     </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>1013.36.1315</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>CR-1315</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Update wording to allow for both past and present procedures</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>Update the concept description, purpose, and use statements to remove wording that restricts the archetype to procedures performed only in the past, so that it also supports questions about future or planned procedures.</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>aleksander.furnes</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>Aleksander Furnes</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>aleksander.furnes</t>
+        </is>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>Aleksander Furnes</t>
+        </is>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>2026-02-17T08:12:55+01:00</t>
+        </is>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>2026-02-17T08:12:55+01:00</t>
+        </is>
+      </c>
+      <c r="M454" t="inlineStr">
+        <is>
+          <t>https://ckm.openehr.org/ckm/archetypes/1013.1.4439/changerequests/1013.36.1315</t>
+        </is>
+      </c>
+      <c r="N454" t="inlineStr">
+        <is>
+          <t>1013.1.4439</t>
+        </is>
+      </c>
+      <c r="O454" t="inlineStr">
+        <is>
+          <t>ARCHETYPE</t>
+        </is>
+      </c>
+      <c r="P454" t="inlineStr">
+        <is>
+          <t>Procedure screening questionnaire</t>
+        </is>
+      </c>
+      <c r="Q454" t="inlineStr">
+        <is>
+          <t>openEHR-EHR-OBSERVATION.procedure_screening.v1</t>
+        </is>
+      </c>
+      <c r="R454" t="inlineStr">
+        <is>
+          <t>PUBLISHED</t>
+        </is>
+      </c>
+      <c r="S454" t="inlineStr">
+        <is>
+          <t>1013.30.90</t>
+        </is>
+      </c>
+      <c r="T454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>1013.36.1316</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>CR-1316</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Update wording to allow for both past and present procedures</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>Update the concept description, purpose, and use statements to remove wording that restricts the archetype to procedures performed only in the past, so that it also supports questions about future or planned procedures.</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>aleksander.furnes</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>Aleksander Furnes</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>aleksander.furnes</t>
+        </is>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>Aleksander Furnes</t>
+        </is>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>2026-02-17T08:14:48+01:00</t>
+        </is>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>2026-02-17T08:14:48+01:00</t>
+        </is>
+      </c>
+      <c r="M455" t="inlineStr">
+        <is>
+          <t>https://ckm.openehr.org/ckm/archetypes/1013.1.6599/changerequests/1013.36.1316</t>
+        </is>
+      </c>
+      <c r="N455" t="inlineStr">
+        <is>
+          <t>1013.1.6599</t>
+        </is>
+      </c>
+      <c r="O455" t="inlineStr">
+        <is>
+          <t>ARCHETYPE</t>
+        </is>
+      </c>
+      <c r="P455" t="inlineStr">
+        <is>
+          <t>Diagnostic investigation screening questionnaire</t>
+        </is>
+      </c>
+      <c r="Q455" t="inlineStr">
+        <is>
+          <t>openEHR-EHR-OBSERVATION.investigation_screening.v1</t>
+        </is>
+      </c>
+      <c r="R455" t="inlineStr">
+        <is>
+          <t>PUBLISHED</t>
+        </is>
+      </c>
+      <c r="S455" t="inlineStr">
+        <is>
+          <t>1013.30.90</t>
+        </is>
+      </c>
+      <c r="T455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>1013.36.1317</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>CR-1317</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Add an element 'Impact'</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We would like to propose “Impact” as a new data element for this action. We identified this need for an initiative and believe it can be extrapolated and useful for the community.
+Description: Global assessment of the impact or relevance of a procedure or its outcome for a specific patient.
+Comment: The same procedure, with the same severity or outcome, can have a different impact on each patient. This relevance factor involves adjusting the overall impact of that procedure or outcome according to the patient's characteristics.
+For now, we propose the Text/Coded Text variable type. The valueset could be constrained in the Template to fit a use case.
+Also comment that, this element is aligned with the already accepted change request 1286, that implemented an element with this semantic in the problema/diagnosis archetype. This element is aplicable on diagnostics, procedures and outcomes enviroments. 
+So we consider that the arquetypes procedure, and family history could benefit from having this concept and so would be aligned and congruent.
+</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>PRIORITY</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>david.alonso</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>David Alonso</t>
+        </is>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>david.alonso</t>
+        </is>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>David Alonso</t>
+        </is>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>2026-02-17T14:27:35+01:00</t>
+        </is>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>2026-02-17T14:27:35+01:00</t>
+        </is>
+      </c>
+      <c r="M456" t="inlineStr">
+        <is>
+          <t>https://ckm.openehr.org/ckm/archetypes/1013.1.204/changerequests/1013.36.1317</t>
+        </is>
+      </c>
+      <c r="N456" t="inlineStr">
+        <is>
+          <t>1013.1.204</t>
+        </is>
+      </c>
+      <c r="O456" t="inlineStr">
+        <is>
+          <t>ARCHETYPE</t>
+        </is>
+      </c>
+      <c r="P456" t="inlineStr">
+        <is>
+          <t>Procedure</t>
+        </is>
+      </c>
+      <c r="Q456" t="inlineStr">
+        <is>
+          <t>openEHR-EHR-ACTION.procedure.v1</t>
+        </is>
+      </c>
+      <c r="R456" t="inlineStr">
+        <is>
+          <t>PUBLISHED</t>
+        </is>
+      </c>
+      <c r="S456" t="inlineStr">
+        <is>
+          <t>1013.8.1</t>
+        </is>
+      </c>
+      <c r="T456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>1013.36.1318</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>CR-1318</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Add an element 'Impact'</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>We would like to propose “Impact” as a new data element for this evaluation. We identified this need for an initiative and believe it can be extrapolated and useful for the community. Also comment that, this element is aligned with the already accepted change request 1286, that implemented an element with this semantic in the problema/diagnosis archetype. This element is aplicable on diagnostics, procedures and outcomes enviroments. 
+Description: Overall assessment of the impact on the subject of the health record, of a health problem present in family members.
+Comment: The same problem or diagnosis in family members, even with the same severity, can have a different impact in each subject of the health record. This relevance factor implies adjusting the overall impact of that health problem according to the characteristics of the subject of the health record.
+For now, we propose the Text/Coded Text variable type. The valueset could be constrained in the Template to fit a use case.</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>PRIORITY</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>david.alonso</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>David Alonso</t>
+        </is>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>david.alonso</t>
+        </is>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>David Alonso</t>
+        </is>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>2026-02-17T14:44:20+01:00</t>
+        </is>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>2026-02-17T14:44:20+01:00</t>
+        </is>
+      </c>
+      <c r="M457" t="inlineStr">
+        <is>
+          <t>https://ckm.openehr.org/ckm/archetypes/1013.1.2469/changerequests/1013.36.1318</t>
+        </is>
+      </c>
+      <c r="N457" t="inlineStr">
+        <is>
+          <t>1013.1.2469</t>
+        </is>
+      </c>
+      <c r="O457" t="inlineStr">
+        <is>
+          <t>ARCHETYPE</t>
+        </is>
+      </c>
+      <c r="P457" t="inlineStr">
+        <is>
+          <t>Family history</t>
+        </is>
+      </c>
+      <c r="Q457" t="inlineStr">
+        <is>
+          <t>openEHR-EHR-EVALUATION.family_history.v2</t>
+        </is>
+      </c>
+      <c r="R457" t="inlineStr">
+        <is>
+          <t>REASSESS_DRAFT</t>
+        </is>
+      </c>
+      <c r="S457" t="inlineStr">
+        <is>
+          <t>1013.8.1</t>
+        </is>
+      </c>
+      <c r="T457" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
